--- a/Outliers.xlsx
+++ b/Outliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RWA\Code\Covid-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BC6766-07B7-4427-B280-38C0EC64B4F3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87033619-5BFE-421A-8748-4B45EAD7D4BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1995" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Country</t>
   </si>
@@ -358,7 +358,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,12 +391,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>36597</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outliers.xlsx
+++ b/Outliers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RWA\Code\Covid-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NikolasIwanus\Documents\Nik Work\Code\Covid-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87033619-5BFE-421A-8748-4B45EAD7D4BB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A1E486-A7E1-476C-A34E-B1139EDE515D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1995" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Country</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Italy</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -355,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,7 +394,36 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43899</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outliers.xlsx
+++ b/Outliers.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NikolasIwanus\Documents\Nik Work\Code\Covid-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A1E486-A7E1-476C-A34E-B1139EDE515D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64752C7-B3B8-46E3-998C-49BF4036B259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Country</t>
   </si>
@@ -358,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,6 +425,14 @@
         <v>43899</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
